--- a/expense_list2016/201605_expense_list.xlsx
+++ b/expense_list2016/201605_expense_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="659">
   <si>
     <t>nid</t>
   </si>
@@ -1968,6 +1968,30 @@
   </si>
   <si>
     <t>행정2부시장비서관등 11명</t>
+  </si>
+  <si>
+    <t>물순환안전국 난지물재생센터 운영과 12월 업무추진비 사용내역</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/10807541</t>
+  </si>
+  <si>
+    <t>사업소</t>
+  </si>
+  <si>
+    <t>물재생센터</t>
+  </si>
+  <si>
+    <t>난지물재생센터</t>
+  </si>
+  <si>
+    <t>운영과</t>
+  </si>
+  <si>
+    <t>2016-05-16 14:45</t>
+  </si>
+  <si>
+    <t>다농마트(마포구 월드컵로235)</t>
   </si>
 </sst>
 </file>
@@ -2306,7 +2330,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R320"/>
+  <dimension ref="A1:R321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -17198,6 +17222,52 @@
       </c>
       <c r="R320">
         <v>484000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18">
+      <c r="A321">
+        <v>10807541</v>
+      </c>
+      <c r="B321" t="s">
+        <v>651</v>
+      </c>
+      <c r="C321" t="s">
+        <v>652</v>
+      </c>
+      <c r="D321" t="s">
+        <v>653</v>
+      </c>
+      <c r="E321" t="s">
+        <v>654</v>
+      </c>
+      <c r="F321" t="s">
+        <v>655</v>
+      </c>
+      <c r="G321" t="s">
+        <v>656</v>
+      </c>
+      <c r="H321"/>
+      <c r="I321">
+        <v>2016</v>
+      </c>
+      <c r="J321">
+        <v>5</v>
+      </c>
+      <c r="K321"/>
+      <c r="L321"/>
+      <c r="M321"/>
+      <c r="N321" t="s">
+        <v>657</v>
+      </c>
+      <c r="O321" t="s">
+        <v>658</v>
+      </c>
+      <c r="P321"/>
+      <c r="Q321" t="s">
+        <v>26</v>
+      </c>
+      <c r="R321">
+        <v>330100</v>
       </c>
     </row>
   </sheetData>
